--- a/FinaLytics_Template.xlsx
+++ b/FinaLytics_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7d9bdf82501e998/Programmieren/Python/Selfmade/FinaLytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{F86F8F16-8F66-1A4D-920B-E45D2E71E219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46FD8DD-1995-744B-BC76-6AA67EE36025}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{F86F8F16-8F66-1A4D-920B-E45D2E71E219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03DEAFD2-56B7-654B-A397-D207D8D7BEB9}"/>
   <bookViews>
     <workbookView xWindow="-21600" yWindow="-420" windowWidth="21600" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Yahoo Ticker</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>ADJ.DE</t>
+  </si>
+  <si>
+    <t>BTC-EUR</t>
+  </si>
+  <si>
+    <t>ETH-EUR</t>
+  </si>
+  <si>
+    <t>Kryptowaehrungen</t>
+  </si>
+  <si>
+    <t>0P00000WS8.F</t>
+  </si>
+  <si>
+    <t>Investmentfonds</t>
   </si>
 </sst>
 </file>
@@ -480,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -760,6 +775,57 @@
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>27000</v>
+      </c>
+      <c r="C17">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>1700</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
